--- a/c++/mocktest/mocktestmemo.xlsx
+++ b/c++/mocktest/mocktestmemo.xlsx
@@ -1,31 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\c++\mocktest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57F4A5D-7F3D-44E0-86D7-3D251D1F255F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2679001-E723-4D5B-838A-EB7B02E25F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="-120" windowWidth="26940" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="-120" windowWidth="26940" windowHeight="16440" xr2:uid="{B10AA624-227F-40B3-9508-90F49955B4C0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="カテゴリ">#REF!</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+  <si>
+    <t>☆tcp read/writeとsend/recvの違いは？</t>
+    <phoneticPr fontId="3"/>
+  </si>
   <si>
     <t>送信</t>
   </si>
@@ -63,6 +78,10 @@
     <t>記述子?socket?を用いてソケット上のデータを受信し、バッファーに保管します。recv() 呼び出しは、接続されたソケットだけに適用されます。</t>
   </si>
   <si>
+    <t>read</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>ssize_t read(int fs, void *buf, size_t N)</t>
   </si>
   <si>
@@ -72,128 +91,89 @@
     <t>fs?がソケットを参照している場合には、read() は、フラグを設定しない recv() と同等です。</t>
   </si>
   <si>
-    <t>read</t>
-    <phoneticPr fontId="2"/>
+    <t>☆TCP通信の各引数の意味</t>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>http://research.nii.ac.jp/~ichiro/syspro98/server.html</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>http://research.nii.ac.jp/~ichiro/syspro98/client.html</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>socket</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ソケット生成。第一引数を PF_INETとしてインターネットを利用することとし、第二引数を SOCK_STREAMとしてコネクション型のソケットであることを宣言しま す。</t>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>connect</t>
   </si>
   <si>
+    <t>socket()で生成したソケットをサー バ側プログラムのソケットと通信接続</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>bind</t>
+  </si>
+  <si>
+    <t>ソケットのアドレスやポート番号、通信方式を登録</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>サーバがクライアントから接続要求への 受け入れる用意ができていることを示します</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>accept</t>
+  </si>
+  <si>
+    <t>接続要求の待機</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>close</t>
   </si>
   <si>
-    <t>bind</t>
-  </si>
-  <si>
-    <t>○</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>listen</t>
-  </si>
-  <si>
-    <t>accept</t>
-  </si>
-  <si>
-    <t>ソケットのアドレスやポート番号、通信方式を登録</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ソケット生成。第一引数を PF_INETとしてインターネットを利用することとし、第二引数を SOCK_STREAMとしてコネクション型のソケットであることを宣言しま す。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>サーバがクライアントから接続要求への 受け入れる用意ができていることを示します</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>接続要求の待機</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>クライアントではサーバ側のIPアドレスやポート番号の設定を connect()システムコールで行いましたが、生成したソケット自体の IPアドレスやポート番号の登録作業はありませんでした。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>これは connect()システムコールが未登録ソケットに対してIPアドレスやポー ト番号の登録してくれるため、bind()システムコールを呼び出す必 要がないからです。</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ただし、クライアントでも特定のアドレスをソケットに割 り当てる場合にはconnect()システムコールを呼び出す前に bind()で登録します。（コラム終わり）</t>
   </si>
   <si>
-    <t>http://research.nii.ac.jp/~ichiro/syspro98/client.html</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>socket</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>socket()で生成したソケットをサー バ側プログラムのソケットと通信接続</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>☆TCP ipのサイト見る</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>https://www.geekpage.jp/programming/linux-network/tcp-1.php</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>☆TCP通信の各引数の意味</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>☆tcp read/writeとsend/recvの違いは？</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>★TCP のDFフラグの設定方法</t>
-    <rPh sb="12" eb="14">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>https://atmarkit.itmedia.co.jp/ait/articles/0512/17/news017.html</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>★クライアント</t>
-  </si>
-  <si>
-    <t>形式に合わせて出力する or 一致確認する</t>
-    <rPh sb="15" eb="17">
-      <t>イッチ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>☆TCP ipの送信は3000byteの送信はできる？</t>
-  </si>
-  <si>
-    <t>★DFフラグによる？</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>→自動的に分割されるため、問題なさそう</t>
@@ -206,6 +186,72 @@
     <rPh sb="13" eb="15">
       <t>モンダイ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://atmarkit.itmedia.co.jp/ait/articles/0512/17/news017.html</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ping -f -l 1438 -n 1 61.XX.XX.XX ……サイズ＝1438bytesで実行</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>IPフラグメンテーション（IP fragmentation）</t>
+  </si>
+  <si>
+    <t>MTUサイズよりも大きなサイズのIPパケットを送信しようとすると、MTUサイズに収まるように、IPパケットをいくつかに分割して送信すること。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://milestone-of-se.nesuke.com/nw-basic/grasp-nw/mtu-mss-fragment-segment/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>☆TCP のDFフラグの確認方法</t>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>☆TCP のDFフラグの設定方法</t>
+    <rPh sb="12" eb="14">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>☆DFフラグによる？</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>→形式に合わせて出力するだけにする。テストコードには余計なコードを含めたくないから。</t>
+    <rPh sb="1" eb="3">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヨケイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>☆クライアントは形式に合わせて出力する？それとも一致確認する？</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -213,13 +259,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="ＭＳ ゴシック"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
@@ -230,17 +276,15 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,6 +293,14 @@
       <color theme="10"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -269,19 +321,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+  <cellStyles count="4">
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
+    <cellStyle name="ハイパーリンク 2" xfId="2" xr:uid="{F675ED52-991F-4D5B-B4A9-DD1207D03F76}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{21BB83BC-BFE3-4B00-854A-B5CE36EFEBEC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -297,7 +363,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -313,7 +379,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -325,7 +391,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -342,7 +408,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -372,12 +438,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -407,6 +490,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -558,296 +658,323 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D03A111-278F-4ECC-B686-E90753C50F6B}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:H48"/>
+  <dimension ref="B2:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="11.25" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="1"/>
+    <col min="1" max="16384" width="4.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" outlineLevel="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" outlineLevel="1">
-      <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:7" outlineLevel="1">
+    <row r="4" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" outlineLevel="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="F6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" outlineLevel="1">
-      <c r="D7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:7" outlineLevel="1">
+    <row r="7" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" outlineLevel="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="F9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" outlineLevel="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="G10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" outlineLevel="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" outlineLevel="1">
-      <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:7" outlineLevel="1">
+    <row r="12" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" outlineLevel="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="F14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" outlineLevel="1">
-      <c r="D15" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="F17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:7" outlineLevel="1">
-      <c r="E16" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" outlineLevel="1">
-      <c r="F17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" outlineLevel="1">
+    <row r="18" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="G18" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" outlineLevel="1"/>
-    <row r="20" spans="2:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" outlineLevel="1"/>
-    <row r="22" spans="2:8" outlineLevel="1">
-      <c r="C22" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" outlineLevel="1">
-      <c r="C23" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" outlineLevel="1"/>
-    <row r="25" spans="2:8" outlineLevel="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="E25" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:8" outlineLevel="1">
+    <row r="26" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="C26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" outlineLevel="1">
-      <c r="C27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="1" t="s">
+      <c r="E33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="2:8" outlineLevel="1">
-      <c r="C28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" outlineLevel="1">
-      <c r="C29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" outlineLevel="1">
-      <c r="C30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" outlineLevel="1">
-      <c r="C31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" outlineLevel="1">
-      <c r="C32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" outlineLevel="1">
-      <c r="C33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" outlineLevel="1"/>
-    <row r="35" spans="2:7" outlineLevel="1">
-      <c r="D35" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" outlineLevel="1">
+    <row r="36" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D36" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" outlineLevel="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="D37" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" outlineLevel="1"/>
-    <row r="39" spans="2:7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D42" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E43" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D44" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E45" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="F46" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="2:7">
-      <c r="C42" s="1" t="s">
+    <row r="47" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="G47" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="2:7">
-      <c r="B44" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7">
-      <c r="C45" s="1" t="s">
+    <row r="48" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="49" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="E49" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="F50" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="2:7">
-      <c r="D46" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7">
-      <c r="E47" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" ht="18.75">
-      <c r="F48" s="2" t="s">
-        <v>40</v>
+    <row r="51" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B52" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C53" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" location="snd" xr:uid="{7D955FA6-96AE-4572-961E-C963031395AE}"/>
-    <hyperlink ref="D7" r:id="rId2" location="rtwri" xr:uid="{D2673CB9-7BAD-44A0-87B3-FB80662E3153}"/>
-    <hyperlink ref="D12" r:id="rId3" xr:uid="{62014E66-252F-4B88-9F37-DB6946F75923}"/>
-    <hyperlink ref="D15" r:id="rId4" location="rtrea" xr:uid="{51F78510-D22D-4A19-8A66-564426A9635E}"/>
-    <hyperlink ref="C22" r:id="rId5" xr:uid="{A13759EE-7BD0-45CF-AA83-48C7BA900CAA}"/>
-    <hyperlink ref="C23" r:id="rId6" xr:uid="{C6743C44-0334-4378-B2A5-9B97C9300398}"/>
-    <hyperlink ref="G39" r:id="rId7" xr:uid="{1CE97B1D-E708-4E2B-A4A5-080B8DC1B153}"/>
-    <hyperlink ref="F48" r:id="rId8" xr:uid="{78A23BA8-0EED-49A4-8A90-31095C003215}"/>
+    <hyperlink ref="D4" r:id="rId1" location="snd" xr:uid="{8FDAE403-0540-4D4C-9B0D-E1115C50B0E3}"/>
+    <hyperlink ref="D7" r:id="rId2" location="rtwri" xr:uid="{529B616D-1F8C-4EE6-98B4-ADCE20E42E8C}"/>
+    <hyperlink ref="D12" r:id="rId3" xr:uid="{008A8DB2-DF19-47CB-AC9C-1040A7C7E6A0}"/>
+    <hyperlink ref="D15" r:id="rId4" location="rtrea" xr:uid="{6B4E3F4A-E303-47AA-807F-7892932D8EAC}"/>
+    <hyperlink ref="C22" r:id="rId5" xr:uid="{1DF776B7-DF3A-47F6-9429-674F75C239EF}"/>
+    <hyperlink ref="C23" r:id="rId6" xr:uid="{72188B14-B2CA-43B3-90E7-8BB201A20394}"/>
+    <hyperlink ref="G39" r:id="rId7" xr:uid="{430C99C8-F07E-4D8D-96A9-8206259E03F8}"/>
+    <hyperlink ref="F46" r:id="rId8" xr:uid="{E11AED82-06F3-46ED-828D-B602FA227B1E}"/>
+    <hyperlink ref="F50" r:id="rId9" xr:uid="{82B0ECC3-BBAC-45F2-A2F2-58814D1691BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/c++/mocktest/mocktestmemo.xlsx
+++ b/c++/mocktest/mocktestmemo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\c++\mocktest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2679001-E723-4D5B-838A-EB7B02E25F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7864D194-6F18-4DD3-BFB3-D6DF23F8C7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="-120" windowWidth="26940" windowHeight="16440" xr2:uid="{B10AA624-227F-40B3-9508-90F49955B4C0}"/>
   </bookViews>

--- a/c++/mocktest/mocktestmemo.xlsx
+++ b/c++/mocktest/mocktestmemo.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes\c++\mocktest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7864D194-6F18-4DD3-BFB3-D6DF23F8C7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ECDC8B-5D81-4DE1-9FD8-EA970439C47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="-120" windowWidth="26940" windowHeight="16440" xr2:uid="{B10AA624-227F-40B3-9508-90F49955B4C0}"/>
+    <workbookView xWindow="1980" yWindow="-120" windowWidth="26940" windowHeight="16440" activeTab="1" xr2:uid="{B10AA624-227F-40B3-9508-90F49955B4C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="カテゴリ">#REF!</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="76">
   <si>
     <t>☆tcp read/writeとsend/recvの違いは？</t>
     <phoneticPr fontId="3"/>
@@ -253,6 +254,121 @@
   <si>
     <t>☆クライアントは形式に合わせて出力する？それとも一致確認する？</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>☆read() と recv() の違い</t>
+  </si>
+  <si>
+    <t>☆ノンブロッキング化</t>
+  </si>
+  <si>
+    <t>☆クライアントとサーバーを逆にしたほうがいい？</t>
+  </si>
+  <si>
+    <t>PythonのTCP通信で複数回の送受信</t>
+  </si>
+  <si>
+    <t>★recv/send繰り返しをもう一度試す</t>
+  </si>
+  <si>
+    <t>送信に失敗したらリトライ？ 接続断したらリトライ？</t>
+  </si>
+  <si>
+    <t>cliantを先に起動してもすぐに終了してしまう。 なので、先に起動する側(mock)をserverにしないといけないはず。</t>
+  </si>
+  <si>
+    <t>★TCP連続送受信周り修正？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★途中で接続断が発生した場合の処置検討？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★マルチスレッドチェック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[AboutMe](/AboutMe.md)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://dqn.sakusakutto.jp/2014/06/github_md_link.html</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★ポート番号に指定はある？</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★客先確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→現時点では考慮不要とする。問題が起こったら考える</t>
+    <rPh sb="1" eb="4">
+      <t>ゲンジテン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウリョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→いったん考慮不要</t>
+    <rPh sb="5" eb="7">
+      <t>コウリョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→シーケンスを色々考える必要がある。 ブロッキングで速度的にも問題ないと思われる。 そのため、ブロッキングで良いこととする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→read()?は?recv()?の?flags?パラメータ に 0 を与え たものと同一。環境によってread()/write()?は許されていなかったりする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★readme.md 分割</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>★TCP通信サンプルプログラム</t>
+    <rPh sb="4" eb="6">
+      <t>ツウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TCP通信</t>
+  </si>
+  <si>
+    <t>サーバー</t>
+  </si>
+  <si>
+    <t>research.nii.ac.jp/~ichiro/syspro98/server.html</t>
+  </si>
+  <si>
+    <t>クライアント</t>
+  </si>
+  <si>
+    <t>research.nii.ac.jp/~ichiro/syspro98/client.html</t>
   </si>
 </sst>
 </file>
@@ -335,13 +451,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
@@ -664,8 +786,8 @@
   </sheetPr>
   <dimension ref="B2:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -977,4 +1099,151 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD0547B-72F8-49D3-83A6-0BC7406DD828}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="B2:N24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="11.25" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="3.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B2" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C3" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B6" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B11" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B13" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B14" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C15" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B16" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C17" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C18" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B20" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="D23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="C17" r:id="rId1" xr:uid="{11DDEABC-3F20-4155-892E-70CDFD1941DA}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{BD693FF8-7CD9-4DD2-BD59-23866584700E}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{5AA90937-F493-42D8-9396-CA473417F362}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{FA0A02FE-176C-41FA-A2A6-F6D694D51008}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+</worksheet>
 </file>